--- a/TPs/TP1/TABLA200/AG_TP1_Ruleta_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA200/AG_TP1_Ruleta_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9779612290593896</v>
+        <v>0.8720032942357427</v>
       </c>
       <c r="C2">
-        <v>0.03822052660793266</v>
+        <v>0.0006626148426962966</v>
       </c>
       <c r="D2">
-        <v>0.3172639655110752</v>
+        <v>0.3451566118068129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.977960639617688</v>
+        <v>0.8760722452755682</v>
       </c>
       <c r="C3">
-        <v>0.1710196748544048</v>
+        <v>0.1437347539282945</v>
       </c>
       <c r="D3">
-        <v>0.4451874390018052</v>
+        <v>0.6550148475255467</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.978476214766278</v>
+        <v>0.8760722452755682</v>
       </c>
       <c r="C4">
-        <v>0.1678041167059639</v>
+        <v>0.4675977107862793</v>
       </c>
       <c r="D4">
-        <v>0.6772228500836859</v>
+        <v>0.7588996931962195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9823440121487607</v>
+        <v>0.9896591381116078</v>
       </c>
       <c r="C5">
-        <v>0.8623586756038645</v>
+        <v>0.43835462846894</v>
       </c>
       <c r="D5">
-        <v>0.9533131470320824</v>
+        <v>0.7592660966361883</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9823742593509645</v>
+        <v>0.8760956228460475</v>
       </c>
       <c r="C6">
-        <v>0.9513771099796217</v>
+        <v>0.45928888386856</v>
       </c>
       <c r="D6">
-        <v>0.9710646163080392</v>
+        <v>0.8252023664104182</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9823742593509645</v>
+        <v>0.8760956228460475</v>
       </c>
       <c r="C7">
-        <v>0.9513771099796217</v>
+        <v>0.8665010047827428</v>
       </c>
       <c r="D7">
-        <v>0.9772648925034494</v>
+        <v>0.8684274175194207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9823736464269613</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C8">
-        <v>0.9440384059589917</v>
+        <v>0.865161202274712</v>
       </c>
       <c r="D8">
-        <v>0.9765097711168457</v>
+        <v>0.8693905633057429</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9823736464269613</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C9">
-        <v>0.9784762092388065</v>
+        <v>0.865161202274712</v>
       </c>
       <c r="D9">
-        <v>0.9813887988099097</v>
+        <v>0.8706163157799602</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9823737867348489</v>
+        <v>0.8774440243789523</v>
       </c>
       <c r="C10">
-        <v>0.2412113284302982</v>
+        <v>0.8665010047827428</v>
       </c>
       <c r="D10">
-        <v>0.8978819285400416</v>
+        <v>0.8719817300500219</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9823742593509645</v>
+        <v>0.8774440802118056</v>
       </c>
       <c r="C11">
-        <v>0.9478080296831171</v>
+        <v>0.8665029467098652</v>
       </c>
       <c r="D11">
-        <v>0.9719920104004045</v>
+        <v>0.8741656675555218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9823742593509645</v>
+        <v>0.8774440802118056</v>
       </c>
       <c r="C12">
-        <v>0.9478078864256088</v>
+        <v>0.8665029467098652</v>
       </c>
       <c r="D12">
-        <v>0.9650547230511719</v>
+        <v>0.8752578165986288</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9823742316586108</v>
+        <v>0.8774440802118056</v>
       </c>
       <c r="C13">
-        <v>0.9478078864256088</v>
+        <v>0.8665029467098652</v>
       </c>
       <c r="D13">
-        <v>0.9685309512824218</v>
+        <v>0.8763497714466361</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9823742316586108</v>
+        <v>0.8774440802118056</v>
       </c>
       <c r="C14">
-        <v>0.9478080296831171</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D14">
-        <v>0.9719799891009678</v>
+        <v>0.8774438568804053</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9823440121487607</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C15">
-        <v>0.9478066098022163</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D15">
-        <v>0.9715946832802903</v>
+        <v>0.8774438233806959</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9823438663046143</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C16">
-        <v>0.2392966478182002</v>
+        <v>0.8756152240512307</v>
       </c>
       <c r="D16">
-        <v>0.8907712209612036</v>
+        <v>0.8772609656810632</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9823438663046143</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C17">
-        <v>0.2392966341506812</v>
+        <v>0.8756152798258693</v>
       </c>
       <c r="D17">
-        <v>0.8731180300954036</v>
+        <v>0.8772609712585272</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9818600021203193</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C18">
-        <v>0.1689658561916913</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D18">
-        <v>0.8575278113558795</v>
+        <v>0.8774438233806959</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.978476214766278</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C19">
-        <v>0.1956331058245307</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D19">
-        <v>0.8271592888987541</v>
+        <v>0.8774438177974112</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.978476214766278</v>
+        <v>0.8774438568804036</v>
       </c>
       <c r="C20">
-        <v>0.8300204111154504</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D20">
-        <v>0.8751763598868816</v>
+        <v>0.8774438122141266</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.978476214766278</v>
+        <v>0.8774439127132514</v>
       </c>
       <c r="C21">
-        <v>0.746806322941947</v>
+        <v>0.8774437452147131</v>
       </c>
       <c r="D21">
-        <v>0.8525717703393673</v>
+        <v>0.8774438177974118</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9804091597832012</v>
+        <v>0.8774439127132514</v>
       </c>
       <c r="C22">
-        <v>0.7484951160530634</v>
+        <v>0.8774437452147131</v>
       </c>
       <c r="D22">
-        <v>0.8558115949698853</v>
+        <v>0.8774438122141273</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9804393771830825</v>
+        <v>0.8774723876971169</v>
       </c>
       <c r="C23">
-        <v>0.8300186852964762</v>
+        <v>0.8774437452147131</v>
       </c>
       <c r="D23">
-        <v>0.8643260661862436</v>
+        <v>0.8774466764623676</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9794726513548802</v>
+        <v>0.8774439127132514</v>
       </c>
       <c r="C24">
-        <v>0.8229163377293648</v>
+        <v>0.8774437452147131</v>
       </c>
       <c r="D24">
-        <v>0.8732373484550358</v>
+        <v>0.8774438066308423</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9726887062371827</v>
+        <v>0.8774441360446605</v>
       </c>
       <c r="C25">
-        <v>0.8229163377293648</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="D25">
-        <v>0.8781265549482571</v>
+        <v>0.8774438345472678</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9726887062371827</v>
+        <v>0.8774441360446605</v>
       </c>
       <c r="C26">
-        <v>0.8229163259015093</v>
+        <v>0.8774433543848529</v>
       </c>
       <c r="D26">
-        <v>0.8841077654542999</v>
+        <v>0.8774438233807075</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9727189219979183</v>
+        <v>0.8774441360446605</v>
       </c>
       <c r="C27">
-        <v>0.822917959836055</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="D27">
-        <v>0.8997786047620998</v>
+        <v>0.8716868910346978</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9726887062371827</v>
+        <v>0.8774441360446605</v>
       </c>
       <c r="C28">
-        <v>0.8229163259015093</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D28">
-        <v>0.893908449706546</v>
+        <v>0.8716870149845362</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9718443703690522</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C29">
-        <v>0.8229163377293648</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D29">
-        <v>0.8906060425275714</v>
+        <v>0.865930027923253</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9718443703690522</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C30">
-        <v>0.7774949445113228</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D30">
-        <v>0.8850381667365828</v>
+        <v>0.8544163441314895</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.971725810065622</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C31">
-        <v>0.4325649128813658</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D31">
-        <v>0.828287669252842</v>
+        <v>0.8601730966948302</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9713631304796244</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C32">
-        <v>0.4377184269283393</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D32">
-        <v>0.7353278392431163</v>
+        <v>0.8601730966948302</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9823440583019737</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C33">
-        <v>0.8229181102189438</v>
+        <v>0.8198749503271966</v>
       </c>
       <c r="D33">
-        <v>0.8688735661383971</v>
+        <v>0.8601730550087922</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.98234389399654</v>
+        <v>0.8774440243789523</v>
       </c>
       <c r="C34">
-        <v>0.8239167661969795</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D34">
-        <v>0.8750922995493887</v>
+        <v>0.8644723956092306</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.98234389399654</v>
+        <v>0.8774440243789523</v>
       </c>
       <c r="C35">
-        <v>0.1789945527864678</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D35">
-        <v>0.7562918268431252</v>
+        <v>0.8644724626086406</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9823440583019737</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C36">
-        <v>0.8264653224147976</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D36">
-        <v>0.9266399854346824</v>
+        <v>0.8544623101999818</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9823440583019737</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C37">
-        <v>0.8520737927451882</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D37">
-        <v>0.954498211589734</v>
+        <v>0.8487511447868542</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9823440583019737</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C38">
-        <v>0.8520737927451882</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D38">
-        <v>0.9439632766253497</v>
+        <v>0.8314348964600597</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9823440583019737</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C39">
-        <v>0.8520737927451882</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D39">
-        <v>0.9442189891108119</v>
+        <v>0.8256780559134331</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9823439992258612</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C40">
-        <v>0.8623586634958723</v>
+        <v>0.8198753820887399</v>
       </c>
       <c r="D40">
-        <v>0.9670494514284028</v>
+        <v>0.8314791363964626</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9842808180616444</v>
+        <v>0.8774438010475574</v>
       </c>
       <c r="C41">
-        <v>0.9713648432643011</v>
+        <v>0.819654335050616</v>
       </c>
       <c r="D41">
-        <v>0.9768210925393153</v>
+        <v>0.8314997025739812</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9842808254534344</v>
+        <v>0.8774440243789523</v>
       </c>
       <c r="C42">
-        <v>0.9727189091384846</v>
+        <v>0.819654335050616</v>
       </c>
       <c r="D42">
-        <v>0.9793232235671384</v>
+        <v>0.8371902005747058</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9842807589273241</v>
+        <v>0.8779012433198635</v>
       </c>
       <c r="C43">
-        <v>0.9727189091384846</v>
+        <v>0.8196545509023265</v>
       </c>
       <c r="D43">
-        <v>0.9782526904409675</v>
+        <v>0.8483177942666966</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9823435930776354</v>
+        <v>0.8774440243789523</v>
       </c>
       <c r="C44">
-        <v>0.7497629710346577</v>
+        <v>0.4719193214384599</v>
       </c>
       <c r="D44">
-        <v>0.9530602768185817</v>
+        <v>0.7965493590889524</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9823435930776354</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C45">
-        <v>0.2364556323839353</v>
+        <v>0.819654335050616</v>
       </c>
       <c r="D45">
-        <v>0.9015443504717856</v>
+        <v>0.8198092406732271</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.997403775999969</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C46">
-        <v>0.919530215387949</v>
+        <v>0.8163424211726032</v>
       </c>
       <c r="D46">
-        <v>0.9690193034001773</v>
+        <v>0.8194339154273583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9974190150267632</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C47">
-        <v>0.7434343221773688</v>
+        <v>0.8196546588281924</v>
       </c>
       <c r="D47">
-        <v>0.9515218005958472</v>
+        <v>0.8198093917854383</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9974190745544398</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C48">
-        <v>0.7434343221773688</v>
+        <v>0.8196546588281924</v>
       </c>
       <c r="D48">
-        <v>0.9150560299253669</v>
+        <v>0.8197651823690825</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9974190745544398</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C49">
-        <v>0.7434344763554674</v>
+        <v>0.8196546588281924</v>
       </c>
       <c r="D49">
-        <v>0.9304992754808634</v>
+        <v>0.8197651823690825</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9974190745544398</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C50">
-        <v>0.8623582760401662</v>
+        <v>0.8196546588281924</v>
       </c>
       <c r="D50">
-        <v>0.9769274334746934</v>
+        <v>0.8197872870772602</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9974190745544398</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C51">
-        <v>0.862358552794233</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D51">
-        <v>0.9811962078175714</v>
+        <v>0.8182011488659124</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9978913635158405</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C52">
-        <v>0.8619193446416541</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D52">
-        <v>0.9792630471786001</v>
+        <v>0.8168794928889559</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9978894581801291</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C53">
-        <v>0.8619122615559639</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D53">
-        <v>0.9588347869505618</v>
+        <v>0.8165273660855972</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9935216833748216</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C54">
-        <v>0.8619230522059242</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D54">
-        <v>0.9460634405895011</v>
+        <v>0.8149426095087323</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9935216833748216</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C55">
-        <v>0.2467661043600368</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D55">
-        <v>0.8210940314379036</v>
+        <v>0.8172297332023405</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9935216833748216</v>
+        <v>0.8198757059099722</v>
       </c>
       <c r="C56">
-        <v>0.2467679993358219</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D56">
-        <v>0.8959603917214469</v>
+        <v>0.8170529789834194</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9954692766166432</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C57">
-        <v>0.9359431282620104</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D57">
-        <v>0.9708287134194791</v>
+        <v>0.8168762247644986</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9954732313400243</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C58">
-        <v>0.935976198863428</v>
+        <v>0.8057887741581184</v>
       </c>
       <c r="D58">
-        <v>0.9748444266982295</v>
+        <v>0.8168762247644986</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9954654705744915</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C59">
-        <v>0.9741452562579954</v>
+        <v>0.790086888107965</v>
       </c>
       <c r="D59">
-        <v>0.9844139494414683</v>
+        <v>0.8116102192906899</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9954654705744915</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C60">
-        <v>0.9741451680143963</v>
+        <v>0.790086888107965</v>
       </c>
       <c r="D60">
-        <v>0.9859654637000735</v>
+        <v>0.8128421151173576</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9954694252903125</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C61">
-        <v>0.9741433737287448</v>
+        <v>0.790086888107965</v>
       </c>
       <c r="D61">
-        <v>0.9859652648522241</v>
+        <v>0.8140733640014387</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9974151159678094</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C62">
-        <v>0.9435460227394561</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D62">
-        <v>0.9827147835713943</v>
+        <v>0.8056675858756472</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9935216536691907</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C63">
-        <v>0.5431512920344573</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D63">
-        <v>0.9407792684332158</v>
+        <v>0.8153057349973644</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9935216833748216</v>
+        <v>0.8181081637207631</v>
       </c>
       <c r="C64">
-        <v>0.540276247407342</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D64">
-        <v>0.8991305528516996</v>
+        <v>0.8125035650515458</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9935177325298101</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C65">
-        <v>0.5569119206920763</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D65">
-        <v>0.9451725505017313</v>
+        <v>0.8040970983436871</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9935177325298101</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C66">
-        <v>0.9741453150870638</v>
+        <v>0.7900862523399277</v>
       </c>
       <c r="D66">
-        <v>0.9909924396431773</v>
+        <v>0.804097077151422</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9935177622353824</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C67">
-        <v>0.9311994562261855</v>
+        <v>0.7900862523399277</v>
       </c>
       <c r="D67">
-        <v>0.9744330154112963</v>
+        <v>0.8069431589814775</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9935179107632505</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C68">
-        <v>0.9311994849850325</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D68">
-        <v>0.985249583520601</v>
+        <v>0.804141074922315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.993517791940955</v>
+        <v>0.8185493851152084</v>
       </c>
       <c r="C69">
-        <v>0.9780044927232675</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D69">
-        <v>0.9915741349190667</v>
+        <v>0.806943368864156</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.993517791940955</v>
+        <v>0.8185493851152084</v>
       </c>
       <c r="C70">
-        <v>0.8728298106767627</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D70">
-        <v>0.9809593468853046</v>
+        <v>0.80694339042895</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.993517791940955</v>
+        <v>0.8185493851152084</v>
       </c>
       <c r="C71">
-        <v>0.8728298106767627</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D71">
-        <v>0.9677285045176871</v>
+        <v>0.80694339042895</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9935177993673483</v>
+        <v>0.8185493851152084</v>
       </c>
       <c r="C72">
-        <v>0.8728297897945674</v>
+        <v>0.7900864642625783</v>
       </c>
       <c r="D72">
-        <v>0.9804769836900815</v>
+        <v>0.8097455172451719</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9935177993673483</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C73">
-        <v>0.9857459130157622</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D73">
-        <v>0.9924483987112552</v>
+        <v>0.8125918094250222</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9935177993673483</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C74">
-        <v>0.9857459130157622</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D74">
-        <v>0.9926429188288021</v>
+        <v>0.8070317264542741</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9935177993673483</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C75">
-        <v>0.9857459130157622</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D75">
-        <v>0.9909913360807791</v>
+        <v>0.8126801400576923</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9935177993673483</v>
+        <v>0.8185494390417482</v>
       </c>
       <c r="C76">
-        <v>0.2467641686793933</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D76">
-        <v>0.9172873873066107</v>
+        <v>0.8069875451979008</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9940045550809549</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C77">
-        <v>0.2467632026924665</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D77">
-        <v>0.9165530104774993</v>
+        <v>0.8012949394596693</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9940045550809549</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C78">
-        <v>0.9857449735602315</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D78">
-        <v>0.9925940998365338</v>
+        <v>0.8040970768720241</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9940045550809549</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C79">
-        <v>0.9926662637158902</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D79">
-        <v>0.9932499110435572</v>
+        <v>0.7984928233327129</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9940045550809549</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C80">
-        <v>0.9925436954555552</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D80">
-        <v>0.993395922160223</v>
+        <v>0.7956906913115569</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9940045550809549</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C81">
-        <v>0.9925436954555552</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D81">
-        <v>0.9933714938511965</v>
+        <v>0.7984928128297122</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9940045253681061</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C82">
-        <v>0.9626124533423033</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D82">
-        <v>0.9902931930390345</v>
+        <v>0.7984928128297122</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9940045253681061</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C83">
-        <v>0.9627331521127143</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D83">
-        <v>0.9902380606880181</v>
+        <v>0.7984928021404468</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9940045253681061</v>
+        <v>0.818107678512808</v>
       </c>
       <c r="C84">
-        <v>0.9931518604097522</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D84">
-        <v>0.9935604165363729</v>
+        <v>0.7956906753242251</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9940045253681061</v>
+        <v>0.818107678512808</v>
       </c>
       <c r="C85">
-        <v>0.9926653135452335</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D85">
-        <v>0.9931823382158879</v>
+        <v>0.7984928073453811</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9935168525024327</v>
+        <v>0.8181077324247958</v>
       </c>
       <c r="C86">
-        <v>0.9926653135452335</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D86">
-        <v>0.9930910822810348</v>
+        <v>0.7956906807154238</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9935168525024327</v>
+        <v>0.8181353355958957</v>
       </c>
       <c r="C87">
-        <v>0.2463394057889833</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D87">
-        <v>0.9182879944224546</v>
+        <v>0.7928913249055773</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9935168487892378</v>
+        <v>0.8181353355958957</v>
       </c>
       <c r="C88">
-        <v>0.9926634094936844</v>
+        <v>0.790085616572146</v>
       </c>
       <c r="D88">
-        <v>0.9927497076759744</v>
+        <v>0.7928912295404011</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9965610300403772</v>
+        <v>0.8181352816829983</v>
       </c>
       <c r="C89">
-        <v>0.9926634094936844</v>
+        <v>0.7899779106064009</v>
       </c>
       <c r="D89">
-        <v>0.9930545051267583</v>
+        <v>0.7928797012285769</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9936385264835609</v>
+        <v>0.8181352816829983</v>
       </c>
       <c r="C90">
-        <v>0.9926634132052841</v>
+        <v>0.7899779106064009</v>
       </c>
       <c r="D90">
-        <v>0.9927620647370814</v>
+        <v>0.7928682524809297</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9936385227701386</v>
+        <v>0.7918234353690713</v>
       </c>
       <c r="C91">
-        <v>0.9926634132052841</v>
+        <v>0.7899779106064009</v>
       </c>
       <c r="D91">
-        <v>0.9928595748581139</v>
+        <v>0.7902492636230777</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9936366252122889</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C92">
-        <v>0.9926653098336302</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D92">
-        <v>0.9929508120809775</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9936385264835609</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C93">
-        <v>0.9926634132052841</v>
+        <v>0.7900863053205877</v>
       </c>
       <c r="D93">
-        <v>0.9930480387728675</v>
+        <v>0.790086390089648</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.996561026321498</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C94">
-        <v>0.8729412207447521</v>
+        <v>0.7900863053205877</v>
       </c>
       <c r="D94">
-        <v>0.9815685117237262</v>
+        <v>0.790086390089648</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9936385264835609</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C95">
-        <v>0.8729412207447521</v>
+        <v>0.7900863053205877</v>
       </c>
       <c r="D95">
-        <v>0.9813733914219966</v>
+        <v>0.7900864006857805</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9936385264835609</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C96">
-        <v>0.9926634132052841</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D96">
-        <v>0.9933455853243982</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.993638511629872</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C97">
-        <v>0.9323123604767015</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D97">
-        <v>0.9810562001720399</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9933932775070541</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C98">
-        <v>0.5575476948805818</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D98">
-        <v>0.8876263614408278</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9926653135452335</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C99">
-        <v>0.5575476948805818</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D99">
-        <v>0.8996239151466072</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9926653135452335</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C100">
-        <v>0.9323123604767015</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D100">
-        <v>0.9745581927634639</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9926653135452335</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C101">
-        <v>0.9323123604767015</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D101">
-        <v>0.9685231769401469</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9936366252122889</v>
+        <v>0.790520488489768</v>
       </c>
       <c r="C102">
-        <v>0.9163514086064261</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D102">
-        <v>0.9604013163121607</v>
+        <v>0.7901325316360016</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9936366252122889</v>
+        <v>0.7901135376149443</v>
       </c>
       <c r="C103">
-        <v>0.2463384591233521</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D103">
-        <v>0.8849317136514461</v>
+        <v>0.7900945491818224</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9936366252122889</v>
+        <v>0.7901135376149443</v>
       </c>
       <c r="C104">
-        <v>0.9163514050403455</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D104">
-        <v>0.9535290978513083</v>
+        <v>0.7900891239152161</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9936366252122889</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C105">
-        <v>0.216749126936426</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D105">
-        <v>0.8803766789505527</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9936366289257076</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C106">
-        <v>0.2167491252020678</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D106">
-        <v>0.8865090924771621</v>
+        <v>0.790086411281913</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9955235804128547</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C107">
-        <v>0.9163531738171443</v>
+        <v>0.7762588831355567</v>
       </c>
       <c r="D107">
-        <v>0.9583982192571607</v>
+        <v>0.7887036584672774</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9955254834885642</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="C108">
-        <v>0.9163514050403455</v>
+        <v>0.7900861993592695</v>
       </c>
       <c r="D108">
-        <v>0.9801353132757825</v>
+        <v>0.7900863900896486</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9955863271157909</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C109">
-        <v>0.5569098161924737</v>
+        <v>0.7900863847915811</v>
       </c>
       <c r="D109">
-        <v>0.9098136449802448</v>
+        <v>0.824590835561591</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9955863271157909</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C110">
-        <v>0.9341991222355646</v>
+        <v>0.7900863847915811</v>
       </c>
       <c r="D110">
-        <v>0.9761955122269645</v>
+        <v>0.8245908355615909</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9955863865887534</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C111">
-        <v>0.9266651287484473</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D111">
-        <v>0.975828829658241</v>
+        <v>0.8706431974255446</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9960717451103385</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C112">
-        <v>0.9332555353415061</v>
+        <v>0.790086411281913</v>
       </c>
       <c r="D112">
-        <v>0.9765860296156494</v>
+        <v>0.8821446702331507</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9960716819049148</v>
+        <v>0.9055657341367334</v>
       </c>
       <c r="C113">
-        <v>0.9332555353415061</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D113">
-        <v>0.9646486905727653</v>
+        <v>0.9051476101770396</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9960716856228808</v>
+        <v>0.9055657341367334</v>
       </c>
       <c r="C114">
-        <v>0.9332554777603493</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D114">
-        <v>0.9708903118744935</v>
+        <v>0.9052405234621961</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.995584423981927</v>
+        <v>0.9055657341367334</v>
       </c>
       <c r="C115">
-        <v>0.9332555353415061</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D115">
-        <v>0.9824350060655995</v>
+        <v>0.9052405234621961</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.995584423981927</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C116">
-        <v>0.9341991150342821</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D116">
-        <v>0.9871149508488971</v>
+        <v>0.9051476073424694</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9955845429277403</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C117">
-        <v>0.9341988845932591</v>
+        <v>0.9050939093632924</v>
       </c>
       <c r="D117">
-        <v>0.9770894620608761</v>
+        <v>0.9052862656133825</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9955845429277403</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C118">
-        <v>0.9341991150342821</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D118">
-        <v>0.9816716414810319</v>
+        <v>0.9052869921569728</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9955844128307575</v>
+        <v>0.9055657341367334</v>
       </c>
       <c r="C119">
-        <v>0.9191540805384214</v>
+        <v>0.9049850092897339</v>
       </c>
       <c r="D119">
-        <v>0.9702210160439432</v>
+        <v>0.9051824577113283</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.995584423981927</v>
+        <v>0.9055657341367334</v>
       </c>
       <c r="C120">
-        <v>0.7549585701308372</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D120">
-        <v>0.9541994530773262</v>
+        <v>0.9051940799328697</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9878045094301505</v>
+        <v>0.9055657660420181</v>
       </c>
       <c r="C121">
-        <v>0.9323122957306423</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D121">
-        <v>0.9656076137224771</v>
+        <v>0.9051940802881007</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9936366289257076</v>
+        <v>0.905565737681765</v>
       </c>
       <c r="C122">
-        <v>0.2167490957179793</v>
+        <v>0.4919171446949143</v>
       </c>
       <c r="D122">
-        <v>0.8399156165952105</v>
+        <v>0.8638295810719496</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9936366289257076</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C123">
-        <v>0.2167490991866955</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D123">
-        <v>0.8763308702433841</v>
+        <v>0.9051011662933008</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9936442340217236</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C124">
-        <v>0.2167490991866955</v>
+        <v>0.9051011393579725</v>
       </c>
       <c r="D124">
-        <v>0.878193839514925</v>
+        <v>0.9051011638124153</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9936365620841725</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C125">
-        <v>0.2167490957179793</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="D125">
-        <v>0.8309936131157525</v>
+        <v>0.9051011694830107</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9936365695110096</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C126">
-        <v>0.5120307027377584</v>
+        <v>0.8902970770627743</v>
       </c>
       <c r="D126">
-        <v>0.9025248568418938</v>
+        <v>0.9036207600637811</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9936365620841725</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C127">
-        <v>0.5120306974063972</v>
+        <v>0.8902970770627743</v>
       </c>
       <c r="D127">
-        <v>0.9023333351697943</v>
+        <v>0.8991795325120057</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9936365620841725</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C128">
-        <v>0.5120306974063972</v>
+        <v>0.4919171420821147</v>
       </c>
       <c r="D128">
-        <v>0.8436445716394341</v>
+        <v>0.8563807201783907</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9936365695110096</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C129">
-        <v>0.5575248661836818</v>
+        <v>0.8902970770627743</v>
       </c>
       <c r="D129">
-        <v>0.8841197677202359</v>
+        <v>0.8976991237957798</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9936442340217236</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C130">
-        <v>0.5567959178208058</v>
+        <v>0.8902970770627743</v>
       </c>
       <c r="D130">
-        <v>0.8364736320048083</v>
+        <v>0.8991795328635076</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9936442340217236</v>
+        <v>0.9051011747991941</v>
       </c>
       <c r="C131">
-        <v>0.5567959178208058</v>
+        <v>0.8902970770627743</v>
       </c>
       <c r="D131">
-        <v>0.8814027183201976</v>
+        <v>0.8991795332237406</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9936442340217236</v>
+        <v>0.9051011747991941</v>
       </c>
       <c r="C132">
-        <v>0.2468271821289644</v>
+        <v>0.8902970840928111</v>
       </c>
       <c r="D132">
-        <v>0.7320341182610192</v>
+        <v>0.9036207618300214</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9936442340217236</v>
+        <v>0.9051011783433163</v>
       </c>
       <c r="C133">
-        <v>0.556795573129951</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="D133">
-        <v>0.8502593505805602</v>
+        <v>0.9051011705462473</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9952499764577325</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C134">
-        <v>0.556795573129951</v>
+        <v>0.8902970840928111</v>
       </c>
       <c r="D134">
-        <v>0.9001307949636868</v>
+        <v>0.903620034223193</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9952494858887476</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C135">
-        <v>0.557159982030798</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="D135">
-        <v>0.9437836543680108</v>
+        <v>0.9051011684197741</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.993301974109102</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C136">
-        <v>0.9643179416320129</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="D136">
-        <v>0.9875051676136841</v>
+        <v>0.9051011687741864</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9933095779243222</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C137">
-        <v>0.246656613395938</v>
+        <v>0.9050866510447388</v>
       </c>
       <c r="D137">
-        <v>0.9186381984193076</v>
+        <v>0.9050997181708018</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9933095630730923</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C138">
-        <v>0.7597656338434996</v>
+        <v>0.9013887044939338</v>
       </c>
       <c r="D138">
-        <v>0.9465954645811012</v>
+        <v>0.9047270194736547</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.993301974109102</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C139">
-        <v>0.7597656338434996</v>
+        <v>0.9050866510447388</v>
       </c>
       <c r="D139">
-        <v>0.9699483397112625</v>
+        <v>0.9050975403149986</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.993301974109102</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C140">
-        <v>0.7597656338434996</v>
+        <v>0.9050866510447388</v>
       </c>
       <c r="D140">
-        <v>0.9699479350171586</v>
+        <v>0.9050982657924447</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9933323895446055</v>
+        <v>0.9655307403252114</v>
       </c>
       <c r="C141">
-        <v>0.993298172212406</v>
+        <v>0.9050866510447388</v>
       </c>
       <c r="D141">
-        <v>0.9933047991972594</v>
+        <v>0.9111419481798133</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9972294097886278</v>
+        <v>0.9051011712550718</v>
       </c>
       <c r="C142">
-        <v>0.993298172212406</v>
+        <v>0.8976838635977711</v>
       </c>
       <c r="D142">
-        <v>0.9940871415066777</v>
+        <v>0.9043550830085902</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.9972293800276193</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C143">
-        <v>0.9933014951588247</v>
+        <v>0.8976838635977711</v>
       </c>
       <c r="D143">
-        <v>0.9948704554432146</v>
+        <v>0.9043594372996319</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9972294097886278</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C144">
-        <v>0.8726275504890623</v>
+        <v>0.8976694065362051</v>
       </c>
       <c r="D144">
-        <v>0.9831872000870325</v>
+        <v>0.9044044510720788</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.997214172210346</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C145">
-        <v>0.2486004490316776</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="D145">
-        <v>0.9059825055996693</v>
+        <v>0.9051011677109496</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9972138150810014</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C146">
-        <v>0.8726301952626756</v>
+        <v>0.9050939093632924</v>
       </c>
       <c r="D146">
-        <v>0.9824056831635281</v>
+        <v>0.905100441876184</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.997201758283041</v>
+        <v>0.9069529963125973</v>
       </c>
       <c r="C147">
-        <v>0.8726301952626756</v>
+        <v>0.9050939093632924</v>
       </c>
       <c r="D147">
-        <v>0.9706306102642464</v>
+        <v>0.9054708075965134</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9972138150810014</v>
+        <v>0.9069602621108352</v>
       </c>
       <c r="C148">
-        <v>0.9624008302509819</v>
+        <v>0.8976766350524362</v>
       </c>
       <c r="D148">
-        <v>0.9916771072170703</v>
+        <v>0.9043578236389672</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9972138150810014</v>
+        <v>0.9069529963125973</v>
       </c>
       <c r="C149">
-        <v>0.9624008302509819</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D149">
-        <v>0.9908003055362506</v>
+        <v>0.9045424055508106</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9971985627415891</v>
+        <v>0.9069602621108352</v>
       </c>
       <c r="C150">
-        <v>0.5516598775749068</v>
+        <v>0.4919171420821147</v>
       </c>
       <c r="D150">
-        <v>0.9400040040789662</v>
+        <v>0.8632247295677509</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9971985627415891</v>
+        <v>0.9069602621108352</v>
       </c>
       <c r="C151">
-        <v>0.5516598775749068</v>
+        <v>0.4919171420821147</v>
       </c>
       <c r="D151">
-        <v>0.8986007950388675</v>
+        <v>0.8635952504083713</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9971988157062671</v>
+        <v>0.9069602621108352</v>
       </c>
       <c r="C152">
-        <v>0.96240058173919</v>
+        <v>0.4919171420821147</v>
       </c>
       <c r="D152">
-        <v>0.9912868146479378</v>
+        <v>0.863594525991249</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9971988715073034</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C153">
-        <v>0.5567502972457611</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D153">
-        <v>0.9492841684593047</v>
+        <v>0.9047262663441475</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9971988715073034</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C154">
-        <v>0.5567502972457611</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D154">
-        <v>0.9496740719475099</v>
+        <v>0.9047269921789134</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.9971988715073034</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C155">
-        <v>0.9624008302509819</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D155">
-        <v>0.9937189446193976</v>
+        <v>0.9047255206622991</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9971988119861982</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C156">
-        <v>0.8762802589040775</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D156">
-        <v>0.9816271555807962</v>
+        <v>0.904355022503968</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9971990500706299</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C157">
-        <v>0.9357629729433188</v>
+        <v>0.9013887009570877</v>
       </c>
       <c r="D157">
-        <v>0.9875693472367818</v>
+        <v>0.9047241143574375</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9971990500706299</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C158">
-        <v>0.8726274147705245</v>
+        <v>0.4919117910830937</v>
       </c>
       <c r="D158">
-        <v>0.9571688445414352</v>
+        <v>0.8634059096901068</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9971990500706299</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C159">
-        <v>0.818750669868474</v>
+        <v>0.4919117910830937</v>
       </c>
       <c r="D159">
-        <v>0.947868962030779</v>
+        <v>0.863036836338561</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9972292870244706</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C160">
-        <v>0.8178672672474632</v>
+        <v>0.4919117910830937</v>
       </c>
       <c r="D160">
-        <v>0.9546944393363106</v>
+        <v>0.8626532761999435</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9972295251125403</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C161">
-        <v>0.8187502384031795</v>
+        <v>0.4919118328876607</v>
       </c>
       <c r="D161">
-        <v>0.9731222336258462</v>
+        <v>0.8623392624038534</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9972295251125403</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C162">
-        <v>0.81875087211787</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D162">
-        <v>0.9615191743859424</v>
+        <v>0.9032869464168284</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.999158017693453</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C163">
-        <v>0.81875087211787</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D163">
-        <v>0.9438693526465627</v>
+        <v>0.9018497782899544</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.999158017693453</v>
+        <v>0.9051011677109497</v>
       </c>
       <c r="C164">
-        <v>0.9662369861984451</v>
+        <v>0.9013812311533576</v>
       </c>
       <c r="D164">
-        <v>0.9943048328500103</v>
+        <v>0.9018490311233173</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9972600006201119</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C165">
-        <v>0.9971990500706299</v>
+        <v>0.9013812311533576</v>
       </c>
       <c r="D165">
-        <v>0.9972173329102608</v>
+        <v>0.901523424214453</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9972600006201119</v>
+        <v>0.9037080986085781</v>
       </c>
       <c r="C166">
-        <v>0.9357632035771699</v>
+        <v>0.9013812311533576</v>
       </c>
       <c r="D166">
-        <v>0.991055466677531</v>
+        <v>0.9017097243993444</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9972600006201119</v>
+        <v>0.9037080986085781</v>
       </c>
       <c r="C167">
-        <v>0.9357632035771699</v>
+        <v>0.9013812311533576</v>
       </c>
       <c r="D167">
-        <v>0.9902616000166926</v>
+        <v>0.9017089998684302</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9972295251125403</v>
+        <v>0.901845096759665</v>
       </c>
       <c r="C168">
-        <v>0.9357632035771699</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D168">
-        <v>0.9909975651699607</v>
+        <v>0.901476358394355</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9971990500706299</v>
+        <v>0.901845096759665</v>
       </c>
       <c r="C169">
-        <v>0.9970771545596012</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D169">
-        <v>0.9971137291646575</v>
+        <v>0.9015234466639118</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9971990500706299</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C170">
-        <v>0.9892913390614414</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D170">
-        <v>0.9963473312141968</v>
+        <v>0.9015248955394757</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9971990500706299</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C171">
-        <v>0.763174414118618</v>
+        <v>0.2019737749358862</v>
       </c>
       <c r="D171">
-        <v>0.9713907562771817</v>
+        <v>0.7616882742601427</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9971990500706299</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C172">
-        <v>0.763174414118618</v>
+        <v>0.2019737749358862</v>
       </c>
       <c r="D172">
-        <v>0.9721693326191734</v>
+        <v>0.8316746822841357</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9991503840786357</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C173">
-        <v>0.9815360411414634</v>
+        <v>0.2019703461866628</v>
       </c>
       <c r="D173">
-        <v>0.9957669311031119</v>
+        <v>0.8316294241736051</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9971990500706299</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C174">
-        <v>0.2408110328535771</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D174">
-        <v>0.9213804747584969</v>
+        <v>0.9016176235755549</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9974428634444289</v>
+        <v>0.962182596265145</v>
       </c>
       <c r="C175">
-        <v>0.2408110328535771</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D175">
-        <v>0.9121563613632887</v>
+        <v>0.9075571968007244</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9970771545596012</v>
+        <v>0.962182596265145</v>
       </c>
       <c r="C176">
-        <v>0.9207094034374221</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D176">
-        <v>0.9785615380701602</v>
+        <v>0.9135894980619733</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.9990283768057322</v>
+        <v>0.962182596265145</v>
       </c>
       <c r="C177">
-        <v>0.8616016512229155</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D177">
-        <v>0.9636301429945405</v>
+        <v>0.9196239725245896</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9971990500706299</v>
+        <v>0.962182596265145</v>
       </c>
       <c r="C178">
-        <v>0.8616016512229155</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D178">
-        <v>0.965098798837699</v>
+        <v>0.9135408598853847</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9971990500706299</v>
+        <v>0.962182596265145</v>
       </c>
       <c r="C179">
-        <v>0.5487639501010614</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D179">
-        <v>0.9338278806193149</v>
+        <v>0.9075086598418685</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9816569829781738</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C180">
-        <v>0.5487639501010614</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D180">
-        <v>0.918541029901531</v>
+        <v>0.9014756344222346</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9816569829781738</v>
+        <v>0.9037080986085781</v>
       </c>
       <c r="C181">
-        <v>0.5487639501010614</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D181">
-        <v>0.9368252932112984</v>
+        <v>0.9018024754436761</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9816569829781738</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C182">
-        <v>0.5487611269898693</v>
+        <v>0.9013814575105915</v>
       </c>
       <c r="D182">
-        <v>0.9383673763408398</v>
+        <v>0.9016639668325354</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9816569829781738</v>
+        <v>0.9018523420688062</v>
       </c>
       <c r="C183">
-        <v>0.9816531923601237</v>
+        <v>0.8866079440452429</v>
       </c>
       <c r="D183">
-        <v>0.9816565850924446</v>
+        <v>0.9002329788898061</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9817174456172588</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C184">
-        <v>0.7495853591441518</v>
+        <v>0.8866079440452429</v>
       </c>
       <c r="D184">
-        <v>0.9584554833677164</v>
+        <v>0.8998689298423566</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9816872196015046</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C185">
-        <v>0.9806858681507996</v>
+        <v>0.4783086434269504</v>
       </c>
       <c r="D185">
-        <v>0.9813747176714781</v>
+        <v>0.8590860860386845</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9835930545606928</v>
+        <v>0.9055657624969864</v>
       </c>
       <c r="C186">
-        <v>0.9806858681507996</v>
+        <v>0.4783086382741392</v>
       </c>
       <c r="D186">
-        <v>0.9814681918986909</v>
+        <v>0.8539558930418456</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.983594946198643</v>
+        <v>0.9018523491443177</v>
       </c>
       <c r="C187">
-        <v>0.8617147561760855</v>
+        <v>0.886607719550654</v>
       </c>
       <c r="D187">
-        <v>0.9698649892843514</v>
+        <v>0.8932572778031853</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9835930545606928</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="C188">
-        <v>0.8617147561760855</v>
+        <v>0.8870678317525227</v>
       </c>
       <c r="D188">
-        <v>0.9699675806009156</v>
+        <v>0.8963029267063798</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9991503803549282</v>
+        <v>0.9032367934910845</v>
       </c>
       <c r="C189">
-        <v>0.2408690673373857</v>
+        <v>0.8870678317525227</v>
       </c>
       <c r="D189">
-        <v>0.8557058012863358</v>
+        <v>0.8950117752663646</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9991808963702833</v>
+        <v>0.9037078719593963</v>
       </c>
       <c r="C190">
-        <v>0.2408708225214271</v>
+        <v>0.8870675510615215</v>
       </c>
       <c r="D190">
-        <v>0.7370080172590548</v>
+        <v>0.8948737760012507</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9991808963702833</v>
+        <v>0.9037078719593963</v>
       </c>
       <c r="C191">
-        <v>0.2408859173681638</v>
+        <v>0.8870747297478339</v>
       </c>
       <c r="D191">
-        <v>0.8979398049364742</v>
+        <v>0.8977372020445188</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9836228591536749</v>
+        <v>0.9621823623982132</v>
       </c>
       <c r="C192">
-        <v>0.8617397655866027</v>
+        <v>0.8870747297478339</v>
       </c>
       <c r="D192">
-        <v>0.969879942109799</v>
+        <v>0.9038713578233928</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9836233320701568</v>
+        <v>0.9621823623982132</v>
       </c>
       <c r="C193">
-        <v>0.9816569829781738</v>
+        <v>0.8870747297478339</v>
       </c>
       <c r="D193">
-        <v>0.9818777348420034</v>
+        <v>0.9125303044241854</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9836233320701568</v>
+        <v>0.9621823623982132</v>
       </c>
       <c r="C194">
-        <v>0.9816867397686408</v>
+        <v>0.8870747297478339</v>
       </c>
       <c r="D194">
-        <v>0.9818868244238121</v>
+        <v>0.9124404264111444</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9836233320701568</v>
+        <v>0.9621823623982132</v>
       </c>
       <c r="C195">
-        <v>0.9816871753092354</v>
+        <v>0.8870747297478339</v>
       </c>
       <c r="D195">
-        <v>0.9820804777483279</v>
+        <v>0.9245064814207046</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9836233320701568</v>
+        <v>0.9621823623982132</v>
       </c>
       <c r="C196">
-        <v>0.9816871753092354</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="D196">
-        <v>0.981892916918645</v>
+        <v>0.9139181763224237</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9836233320701568</v>
+        <v>0.902779812020535</v>
       </c>
       <c r="C197">
-        <v>0.9816867323865976</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="D197">
-        <v>0.9818868207327899</v>
+        <v>0.9019448909496715</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9836233320701568</v>
+        <v>0.902779812020535</v>
       </c>
       <c r="C198">
-        <v>0.2408859100546545</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="D198">
-        <v>0.907849164522338</v>
+        <v>0.9020376605835692</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9836233320701568</v>
+        <v>0.9027797553873461</v>
       </c>
       <c r="C199">
-        <v>0.9809616544054475</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="D199">
-        <v>0.9818083570076904</v>
+        <v>0.902130413233331</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9816872196015046</v>
+        <v>0.9027797553873461</v>
       </c>
       <c r="C200">
-        <v>0.9809616248881821</v>
+        <v>0.901852115652455</v>
       </c>
       <c r="D200">
-        <v>0.9816146438896736</v>
+        <v>0.9020376492598418</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9816872196015046</v>
+        <v>0.9027797553873461</v>
       </c>
       <c r="C201">
-        <v>0.9739618285073774</v>
+        <v>0.6800623787058019</v>
       </c>
       <c r="D201">
-        <v>0.9808421062566699</v>
+        <v>0.8797659115916874</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9816881497393901</v>
+        <v>0.9018521722565401</v>
       </c>
       <c r="C202">
-        <v>0.8610634912193232</v>
+        <v>0.6800623787058019</v>
       </c>
       <c r="D202">
-        <v>0.9686343429566253</v>
+        <v>0.8574941795839415</v>
       </c>
     </row>
   </sheetData>
